--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P252"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12316,9 +12316,7 @@
           <t>2024-10-24 22:20:57+00:00</t>
         </is>
       </c>
-      <c r="B251" t="n">
-        <v>280.0288888888889</v>
-      </c>
+      <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
         <v>307.4888888888889</v>
@@ -12384,7 +12382,9 @@
       <c r="G252" t="n">
         <v>317.3766666666667</v>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>313.6390909090909</v>
+      </c>
       <c r="I252" t="n">
         <v>292.7690909090909</v>
       </c>
@@ -12398,13 +12398,215 @@
       <c r="M252" t="n">
         <v>325.07</v>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>340.955</v>
+      </c>
       <c r="O252" t="n">
         <v>345.0061538461539</v>
       </c>
       <c r="P252" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="I253" t="n">
+        <v>270.08</v>
+      </c>
+      <c r="J253" t="n">
+        <v>261.0466666666667</v>
+      </c>
+      <c r="K253" t="n">
+        <v>260.9944444444445</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>316.2666666666667</v>
+      </c>
+      <c r="N253" t="n">
+        <v>326.075</v>
+      </c>
+      <c r="O253" t="n">
+        <v>318.4038461538461</v>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>305.5266666666667</v>
+      </c>
+      <c r="C254" t="n">
+        <v>307.4566666666667</v>
+      </c>
+      <c r="D254" t="n">
+        <v>312.2366666666667</v>
+      </c>
+      <c r="E254" t="n">
+        <v>306.5266666666667</v>
+      </c>
+      <c r="F254" t="n">
+        <v>297.2266666666667</v>
+      </c>
+      <c r="G254" t="n">
+        <v>287.5066666666667</v>
+      </c>
+      <c r="H254" t="n">
+        <v>288.81</v>
+      </c>
+      <c r="I254" t="n">
+        <v>278.04</v>
+      </c>
+      <c r="J254" t="n">
+        <v>272.39</v>
+      </c>
+      <c r="K254" t="n">
+        <v>270.4433333333333</v>
+      </c>
+      <c r="L254" t="n">
+        <v>273.6357142857143</v>
+      </c>
+      <c r="M254" t="n">
+        <v>281.17</v>
+      </c>
+      <c r="N254" t="n">
+        <v>304.535</v>
+      </c>
+      <c r="O254" t="n">
+        <v>314.8630769230769</v>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>354.7455555555555</v>
+      </c>
+      <c r="C255" t="n">
+        <v>335.5955555555556</v>
+      </c>
+      <c r="D255" t="n">
+        <v>324.4755555555556</v>
+      </c>
+      <c r="E255" t="n">
+        <v>319.2155555555556</v>
+      </c>
+      <c r="F255" t="n">
+        <v>311.1055555555556</v>
+      </c>
+      <c r="G255" t="n">
+        <v>287.8755555555555</v>
+      </c>
+      <c r="H255" t="n">
+        <v>286.4845454545454</v>
+      </c>
+      <c r="I255" t="n">
+        <v>277.8945454545454</v>
+      </c>
+      <c r="J255" t="n">
+        <v>266.9266666666667</v>
+      </c>
+      <c r="K255" t="n">
+        <v>264.6377777777778</v>
+      </c>
+      <c r="L255" t="n">
+        <v>274.4057142857143</v>
+      </c>
+      <c r="M255" t="n">
+        <v>286.7566666666667</v>
+      </c>
+      <c r="N255" t="n">
+        <v>308.785</v>
+      </c>
+      <c r="O255" t="n">
+        <v>322.3192307692308</v>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="n">
+        <v>351.3255555555555</v>
+      </c>
+      <c r="D256" t="n">
+        <v>333.6455555555555</v>
+      </c>
+      <c r="E256" t="n">
+        <v>332.1655555555556</v>
+      </c>
+      <c r="F256" t="n">
+        <v>309.0755555555555</v>
+      </c>
+      <c r="G256" t="n">
+        <v>282.8955555555555</v>
+      </c>
+      <c r="H256" t="n">
+        <v>293.9736363636364</v>
+      </c>
+      <c r="I256" t="n">
+        <v>275.4536363636363</v>
+      </c>
+      <c r="J256" t="n">
+        <v>255.3666666666666</v>
+      </c>
+      <c r="K256" t="n">
+        <v>256.6877777777778</v>
+      </c>
+      <c r="L256" t="n">
+        <v>273.39</v>
+      </c>
+      <c r="M256" t="n">
+        <v>309.8266666666667</v>
+      </c>
+      <c r="N256" t="n">
+        <v>335.565</v>
+      </c>
+      <c r="O256" t="n">
+        <v>342.5023076923077</v>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15177,6 +15379,46 @@
       </c>
       <c r="B275" t="n">
         <v>-1.05</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-1.19</v>
       </c>
     </row>
   </sheetData>
@@ -15339,28 +15581,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.1598898177161268</v>
+        <v>0.2652540841841428</v>
       </c>
       <c r="J2" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002268105639196105</v>
+        <v>0.006343035521591323</v>
       </c>
       <c r="M2" t="n">
-        <v>19.90976811973681</v>
+        <v>19.82443442783204</v>
       </c>
       <c r="N2" t="n">
-        <v>629.0743879079309</v>
+        <v>623.8462477938558</v>
       </c>
       <c r="O2" t="n">
-        <v>25.08135538418789</v>
+        <v>24.97691429688335</v>
       </c>
       <c r="P2" t="n">
-        <v>313.5057130776791</v>
+        <v>312.571568784858</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15410,28 +15652,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.4646594060474508</v>
+        <v>0.5099973866278286</v>
       </c>
       <c r="J3" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K3" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02214322515438782</v>
+        <v>0.02725491498360699</v>
       </c>
       <c r="M3" t="n">
-        <v>17.88469339397235</v>
+        <v>17.9168192896122</v>
       </c>
       <c r="N3" t="n">
-        <v>503.3003777189795</v>
+        <v>502.1379032629317</v>
       </c>
       <c r="O3" t="n">
-        <v>22.43435708280894</v>
+        <v>22.40843375300763</v>
       </c>
       <c r="P3" t="n">
-        <v>308.5234900171509</v>
+        <v>308.0917716098973</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15481,28 +15723,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.8102913208068615</v>
+        <v>0.821361148800412</v>
       </c>
       <c r="J4" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K4" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08945714689261997</v>
+        <v>0.09487037113812913</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30377066463631</v>
+        <v>15.17816382725739</v>
       </c>
       <c r="N4" t="n">
-        <v>344.3974889421154</v>
+        <v>339.666550128103</v>
       </c>
       <c r="O4" t="n">
-        <v>18.55794948107456</v>
+        <v>18.43004476739281</v>
       </c>
       <c r="P4" t="n">
-        <v>300.0732514656053</v>
+        <v>299.9668808227376</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15552,28 +15794,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.796054662067371</v>
+        <v>0.8144421629843515</v>
       </c>
       <c r="J5" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K5" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07436365624149055</v>
+        <v>0.0794971550731024</v>
       </c>
       <c r="M5" t="n">
-        <v>15.48939514748939</v>
+        <v>15.40861670972587</v>
       </c>
       <c r="N5" t="n">
-        <v>426.0130211682899</v>
+        <v>421.7923359373697</v>
       </c>
       <c r="O5" t="n">
-        <v>20.64008287697241</v>
+        <v>20.53758349800116</v>
       </c>
       <c r="P5" t="n">
-        <v>292.9443775434475</v>
+        <v>292.7696209885046</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15623,28 +15865,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.6393780418096887</v>
+        <v>0.6376454591446027</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08192694787535992</v>
+        <v>0.08391256171940475</v>
       </c>
       <c r="M6" t="n">
-        <v>12.16680083187473</v>
+        <v>12.06373331527847</v>
       </c>
       <c r="N6" t="n">
-        <v>239.2998484984821</v>
+        <v>236.1630482906451</v>
       </c>
       <c r="O6" t="n">
-        <v>15.46931958744411</v>
+        <v>15.36759734931408</v>
       </c>
       <c r="P6" t="n">
-        <v>290.2397546110915</v>
+        <v>290.2561009017969</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15700,28 +15942,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3581221472968736</v>
+        <v>0.3339802031372768</v>
       </c>
       <c r="J7" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03118557018830426</v>
+        <v>0.02798691997491065</v>
       </c>
       <c r="M7" t="n">
-        <v>11.65874466888061</v>
+        <v>11.61537300189828</v>
       </c>
       <c r="N7" t="n">
-        <v>212.9077773380066</v>
+        <v>210.7050082300971</v>
       </c>
       <c r="O7" t="n">
-        <v>14.59135968092099</v>
+        <v>14.51568145937686</v>
       </c>
       <c r="P7" t="n">
-        <v>285.1377935808925</v>
+        <v>285.3663901410246</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15777,28 +16019,28 @@
         <v>0.0682</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02641897198464156</v>
+        <v>0.03123802202839122</v>
       </c>
       <c r="J8" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K8" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001917186792560477</v>
+        <v>0.0002749822945270486</v>
       </c>
       <c r="M8" t="n">
-        <v>11.36657607900202</v>
+        <v>11.40024095212585</v>
       </c>
       <c r="N8" t="n">
-        <v>195.0396751588078</v>
+        <v>195.8119184773366</v>
       </c>
       <c r="O8" t="n">
-        <v>13.96566057008432</v>
+        <v>13.99328119053343</v>
       </c>
       <c r="P8" t="n">
-        <v>283.4022360380599</v>
+        <v>282.8660353499443</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -15854,28 +16096,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08362165604896918</v>
+        <v>-0.06720842972507785</v>
       </c>
       <c r="J9" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K9" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002446662982356629</v>
+        <v>0.001643441524428968</v>
       </c>
       <c r="M9" t="n">
-        <v>9.988696696854996</v>
+        <v>9.888168647526717</v>
       </c>
       <c r="N9" t="n">
-        <v>152.1474955164867</v>
+        <v>149.7224760845261</v>
       </c>
       <c r="O9" t="n">
-        <v>12.33480828859884</v>
+        <v>12.23611360214207</v>
       </c>
       <c r="P9" t="n">
-        <v>273.1644330858461</v>
+        <v>273.0089538877033</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -15931,28 +16173,28 @@
         <v>0.0743</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1386794782257861</v>
+        <v>-0.1390161039902422</v>
       </c>
       <c r="J10" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K10" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005931020515782981</v>
+        <v>0.006168283576095446</v>
       </c>
       <c r="M10" t="n">
-        <v>10.67952586945045</v>
+        <v>10.58701116184662</v>
       </c>
       <c r="N10" t="n">
-        <v>172.5855612573092</v>
+        <v>170.1168156506462</v>
       </c>
       <c r="O10" t="n">
-        <v>13.1371823941555</v>
+        <v>13.04288371682605</v>
       </c>
       <c r="P10" t="n">
-        <v>267.5056417298485</v>
+        <v>267.5091434335271</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -16008,28 +16250,28 @@
         <v>0.1277</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2370497959893402</v>
+        <v>-0.2391984322050887</v>
       </c>
       <c r="J11" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K11" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02346870018661706</v>
+        <v>0.0246722611136807</v>
       </c>
       <c r="M11" t="n">
-        <v>8.809116579604197</v>
+        <v>8.729291021981677</v>
       </c>
       <c r="N11" t="n">
-        <v>125.3207918470093</v>
+        <v>123.5426740132638</v>
       </c>
       <c r="O11" t="n">
-        <v>11.19467694250304</v>
+        <v>11.11497521424424</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7823489533801</v>
+        <v>269.8030685437494</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -16085,28 +16327,28 @@
         <v>0.0872</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3380764898141947</v>
+        <v>-0.338736748513427</v>
       </c>
       <c r="J12" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K12" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04874938755312586</v>
+        <v>0.0503661387140143</v>
       </c>
       <c r="M12" t="n">
-        <v>8.273464563750188</v>
+        <v>8.164467444565348</v>
       </c>
       <c r="N12" t="n">
-        <v>117.141122721374</v>
+        <v>115.5098681353606</v>
       </c>
       <c r="O12" t="n">
-        <v>10.82317526058661</v>
+        <v>10.74755172750337</v>
       </c>
       <c r="P12" t="n">
-        <v>282.5824408077984</v>
+        <v>282.5887838681807</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -16162,28 +16404,28 @@
         <v>0.078</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5639474946488905</v>
+        <v>-0.5391250222550741</v>
       </c>
       <c r="J13" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K13" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1007610207583284</v>
+        <v>0.09336720941237409</v>
       </c>
       <c r="M13" t="n">
-        <v>9.389776148934526</v>
+        <v>9.48244859540835</v>
       </c>
       <c r="N13" t="n">
-        <v>149.4002053001982</v>
+        <v>151.5369160048728</v>
       </c>
       <c r="O13" t="n">
-        <v>12.22293767063377</v>
+        <v>12.31003314393884</v>
       </c>
       <c r="P13" t="n">
-        <v>305.6156577595278</v>
+        <v>305.3773139603508</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -16239,28 +16481,28 @@
         <v>0.1146</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.702213323435775</v>
+        <v>-0.6144930620149029</v>
       </c>
       <c r="J14" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K14" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L14" t="n">
-        <v>0.12969081680855</v>
+        <v>0.100426291244095</v>
       </c>
       <c r="M14" t="n">
-        <v>10.69213257988346</v>
+        <v>10.87503996016887</v>
       </c>
       <c r="N14" t="n">
-        <v>174.8706423362342</v>
+        <v>183.6886887755262</v>
       </c>
       <c r="O14" t="n">
-        <v>13.22386639134842</v>
+        <v>13.55318002446386</v>
       </c>
       <c r="P14" t="n">
-        <v>321.3560139641682</v>
+        <v>320.5313849200772</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -16316,28 +16558,28 @@
         <v>0.0853</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4950917943475943</v>
+        <v>-0.4586839602095643</v>
       </c>
       <c r="J15" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K15" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05883984123594876</v>
+        <v>0.05197882310953406</v>
       </c>
       <c r="M15" t="n">
-        <v>11.70679270391289</v>
+        <v>11.67854694218142</v>
       </c>
       <c r="N15" t="n">
-        <v>210.3833593631891</v>
+        <v>210.3735284710806</v>
       </c>
       <c r="O15" t="n">
-        <v>14.50459786975113</v>
+        <v>14.50425897697227</v>
       </c>
       <c r="P15" t="n">
-        <v>326.9914516254449</v>
+        <v>326.6485383692705</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -16374,7 +16616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P252"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33580,11 +33822,7 @@
           <t>2024-10-24 22:20:57+00:00</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>-46.623871866062224,169.2688285389644</t>
-        </is>
-      </c>
+      <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
@@ -33684,7 +33922,11 @@
           <t>-46.626336633139026,169.26605735363617</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>-46.62675748481696,169.26540094825558</t>
+        </is>
+      </c>
       <c r="I252" t="inlineStr">
         <is>
           <t>-46.62706812397737,169.26458835587817</t>
@@ -33706,7 +33948,11 @@
           <t>-46.62905543495742,169.2623934989503</t>
         </is>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>-46.62960249424886,169.26191598451115</t>
+        </is>
+      </c>
       <c r="O252" t="inlineStr">
         <is>
           <t>-46.630073424617194,169.26133058597176</t>
@@ -33715,6 +33961,302 @@
       <c r="P252" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>-46.62660381307762,169.26518316496097</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>-46.62692217042666,169.26438151288792</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>-46.6273089462375,169.26367682872632</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>-46.62775349184563,169.26305401972084</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>-46.62899880424659,169.26231324279706</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>-46.62950677275132,169.2617803293545</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>-46.62990229380329,169.2610880627319</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>-46.62403588103992,169.2690609844914</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-46.624493208142006,169.26845624692837</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>-46.62496886455539,169.26787749112742</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>-46.62537703955477,169.26720310450676</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>-46.62576211727635,169.26649598990656</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-46.62614448892812,169.26578504627602</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>-46.626597766316685,169.26517459553926</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>-46.62697337526162,169.26445407936197</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>-46.62738191570854,169.2637802390153</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>-46.627814275045466,169.26314015965906</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>-46.6282796894232,169.26254693005436</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>-46.62877303138842,169.2619932834491</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>-46.62936820790115,169.26158395842353</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>-46.62987951624282,169.26105578298512</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>-46.62435248131764,169.2695096828845</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>-46.624674212523956,169.2687127718875</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>-46.625047592071276,169.26798906569394</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>-46.62545866220037,169.26731878153043</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>-46.625851395272534,169.26662251543908</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>-46.62614686187667,169.26578840920902</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>-46.62658280730592,169.26515339575957</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>-46.62697243958662,169.2644527533402</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>-46.62734677115185,169.2637304330847</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>-46.62777692883676,169.26308723381572</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>-46.62828464273236,169.26255394971722</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>-46.62880896983386,169.26204421421087</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>-46.62939554778711,169.26162270376918</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>-46.62992748123275,169.26112375772567</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>-46.62477539606497,169.26885617337757</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>-46.62510657867712,169.2680726632641</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>-46.62554196436002,169.26743683930712</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>-46.625838337006726,169.26660400911672</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>-46.62611482706343,169.2657430096386</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>-46.62663098255904,169.26522166936877</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>-46.626956737788504,169.26443050104422</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>-46.62727240786285,169.26362504771643</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>-46.627725787723854,169.26301475844895</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>-46.628278108775305,169.26254469001378</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>-46.62895737652216,169.26225453222997</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>-46.629567820954726,169.261866845928</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>-46.63005731756749,169.2613077592823</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -15432,7 +15432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15523,35 +15523,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15604,27 +15609,28 @@
       <c r="P2" t="n">
         <v>312.571568784858</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.26627580258824 -46.62207054581668, 169.27425029756267 -46.62769712022575)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.2662758025882</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.62207054581668</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.2742502975627</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.62769712022575</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.2702630500755</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.62488383302122</v>
       </c>
     </row>
@@ -15675,27 +15681,28 @@
       <c r="P3" t="n">
         <v>308.0917716098973</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.26565346494905 -46.62251544784269, 169.27362795536578 -46.62814203727808)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.2656534649491</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.62251544784269</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.2736279553658</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.62814203727808</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.2696407101574</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.62532874256038</v>
       </c>
     </row>
@@ -15746,27 +15753,28 @@
       <c r="P4" t="n">
         <v>299.9668808227376</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.26503112731052 -46.62296034621231, 169.2730056131678 -46.62858695067413)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.2650311273105</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.62296034621231</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.2730056131678</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.62858695067413</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.2690183702392</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.62577364844322</v>
       </c>
     </row>
@@ -15817,27 +15825,28 @@
       <c r="P5" t="n">
         <v>292.7696209885046</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.26440878967236 -46.62340524092555, 169.272383270969 -46.62903186041371)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.2644087896724</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.62340524092555</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.272383270969</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.62903186041371</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.2683960303207</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.62621855066963</v>
       </c>
     </row>
@@ -15888,27 +15897,28 @@
       <c r="P6" t="n">
         <v>290.2561009017969</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.26378645203462 -46.62385013198244, 169.27176092876934 -46.62947676649693)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.2637864520346</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.62385013198244</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.2717609287693</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.62947676649693</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.267773690402</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.62666344923969</v>
       </c>
     </row>
@@ -15965,27 +15975,28 @@
       <c r="P7" t="n">
         <v>285.3663901410246</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.26316411439728 -46.62429501938296, 169.2711385865687 -46.6299216689238)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.2631641143973</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.62429501938296</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.2711385865687</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.6299216689238</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.267151350483</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.62710834415338</v>
       </c>
     </row>
@@ -16042,27 +16053,28 @@
       <c r="P8" t="n">
         <v>282.8660353499443</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.26254177676037 -46.62473990312716, 169.27051624436737 -46.630366567694146)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.2625417767604</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.62473990312716</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.2705162443674</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.63036656769415</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.2665290105639</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.62755323541065</v>
       </c>
     </row>
@@ -16119,27 +16131,28 @@
       <c r="P9" t="n">
         <v>273.0089538877033</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.26191943912406 -46.62518478321499, 169.269893902165 -46.63081146280823)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.2619194391241</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.62518478321499</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.269893902165</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.63081146280823</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.2659066706445</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.62799812301161</v>
       </c>
     </row>
@@ -16196,27 +16209,28 @@
       <c r="P10" t="n">
         <v>267.5091434335271</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.26129710148817 -46.625629659646414, 169.26927155996162 -46.63125635426603)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.2612971014882</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.62562965964641</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.2692715599616</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.63125635426603</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.2652843307249</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.62844300695622</v>
       </c>
     </row>
@@ -16273,27 +16287,28 @@
       <c r="P11" t="n">
         <v>269.8030685437494</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.26067476385262 -46.626074532421555, 169.26864921775743 -46.63170124206735)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.2606747638526</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.62607453242155</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.2686492177574</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.63170124206735</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.264661990805</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.62888788724445</v>
       </c>
     </row>
@@ -16350,27 +16365,28 @@
       <c r="P12" t="n">
         <v>282.5887838681807</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.26005242621756 -46.626519401540335, 169.26802687555238 -46.63214612621232)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.2600524262176</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.62651940154034</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.2680268755524</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.63214612621232</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.264039650885</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.62933276387633</v>
       </c>
     </row>
@@ -16427,27 +16443,28 @@
       <c r="P13" t="n">
         <v>305.3773139603508</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.25943008858297 -46.62696426700279, 169.26740453334637 -46.63259100670092)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.259430088583</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.62696426700279</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.2674045333464</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.63259100670092</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.2634173109647</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.62977763685186</v>
       </c>
     </row>
@@ -16504,27 +16521,28 @@
       <c r="P14" t="n">
         <v>320.5313849200772</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.2588077509488 -46.6274091288089, 169.26678219113953 -46.633035883533125)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.2588077509488</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.6274091288089</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.2667821911395</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.63303588353313</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.2627949710442</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.63022250617101</v>
       </c>
     </row>
@@ -16581,27 +16599,28 @@
       <c r="P15" t="n">
         <v>326.6485383692705</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.25818541331506 -46.62785398695869, 169.26615984893178 -46.63348075670903)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.2581854133151</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.62785398695869</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.2661598489318</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.63348075670903</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.2621726311234</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.63066737183386</v>
       </c>
     </row>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12456,9 +12456,7 @@
           <t>2025-01-12 22:20:57+00:00</t>
         </is>
       </c>
-      <c r="B254" t="n">
-        <v>305.5266666666667</v>
-      </c>
+      <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
         <v>307.4566666666667</v>
       </c>
@@ -12510,9 +12508,7 @@
           <t>2025-01-28 22:20:54+00:00</t>
         </is>
       </c>
-      <c r="B255" t="n">
-        <v>354.7455555555555</v>
-      </c>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
         <v>335.5955555555556</v>
       </c>
@@ -12605,6 +12601,114 @@
         <v>342.5023076923077</v>
       </c>
       <c r="P256" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>342.8333333333333</v>
+      </c>
+      <c r="C257" t="n">
+        <v>333.9533333333333</v>
+      </c>
+      <c r="D257" t="n">
+        <v>327.4833333333333</v>
+      </c>
+      <c r="E257" t="n">
+        <v>322.2633333333333</v>
+      </c>
+      <c r="F257" t="n">
+        <v>310.9533333333333</v>
+      </c>
+      <c r="G257" t="n">
+        <v>302.3133333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>286.9281818181818</v>
+      </c>
+      <c r="I257" t="n">
+        <v>273.2681818181818</v>
+      </c>
+      <c r="J257" t="n">
+        <v>266.15</v>
+      </c>
+      <c r="K257" t="n">
+        <v>272.6866666666667</v>
+      </c>
+      <c r="L257" t="n">
+        <v>281.4357142857143</v>
+      </c>
+      <c r="M257" t="n">
+        <v>307.19</v>
+      </c>
+      <c r="N257" t="n">
+        <v>330.06</v>
+      </c>
+      <c r="O257" t="n">
+        <v>336.6138461538461</v>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>350.0022222222222</v>
+      </c>
+      <c r="C258" t="n">
+        <v>348.7122222222222</v>
+      </c>
+      <c r="D258" t="n">
+        <v>366.5222222222222</v>
+      </c>
+      <c r="E258" t="n">
+        <v>343.5022222222222</v>
+      </c>
+      <c r="F258" t="n">
+        <v>323.0422222222222</v>
+      </c>
+      <c r="G258" t="n">
+        <v>317.0222222222222</v>
+      </c>
+      <c r="H258" t="n">
+        <v>289.67</v>
+      </c>
+      <c r="I258" t="n">
+        <v>280.08</v>
+      </c>
+      <c r="J258" t="n">
+        <v>268.6466666666667</v>
+      </c>
+      <c r="K258" t="n">
+        <v>272.5211111111111</v>
+      </c>
+      <c r="L258" t="n">
+        <v>285.2371428571428</v>
+      </c>
+      <c r="M258" t="n">
+        <v>304.1166666666667</v>
+      </c>
+      <c r="N258" t="n">
+        <v>323.485</v>
+      </c>
+      <c r="O258" t="n">
+        <v>333.7715384615385</v>
+      </c>
+      <c r="P258" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12621,7 +12725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15419,6 +15523,26 @@
       </c>
       <c r="B279" t="n">
         <v>-1.19</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -15586,28 +15710,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.2652540841841428</v>
+        <v>0.3222133836557628</v>
       </c>
       <c r="J2" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K2" t="n">
         <v>117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006343035521591323</v>
+        <v>0.009345529912016426</v>
       </c>
       <c r="M2" t="n">
-        <v>19.82443442783204</v>
+        <v>19.84233473437218</v>
       </c>
       <c r="N2" t="n">
-        <v>623.8462477938558</v>
+        <v>623.9807050897351</v>
       </c>
       <c r="O2" t="n">
-        <v>24.97691429688335</v>
+        <v>24.97960578331322</v>
       </c>
       <c r="P2" t="n">
-        <v>312.571568784858</v>
+        <v>312.0539513364409</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15658,28 +15782,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5099973866278286</v>
+        <v>0.5630679771483551</v>
       </c>
       <c r="J3" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K3" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02725491498360699</v>
+        <v>0.03357428871823165</v>
       </c>
       <c r="M3" t="n">
-        <v>17.9168192896122</v>
+        <v>17.93304279226261</v>
       </c>
       <c r="N3" t="n">
-        <v>502.1379032629317</v>
+        <v>501.4082778466046</v>
       </c>
       <c r="O3" t="n">
-        <v>22.40843375300763</v>
+        <v>22.39214768276157</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0917716098973</v>
+        <v>307.5829011511505</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15730,28 +15854,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.821361148800412</v>
+        <v>0.8852626359124629</v>
       </c>
       <c r="J4" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K4" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09487037113812913</v>
+        <v>0.107678737138361</v>
       </c>
       <c r="M4" t="n">
-        <v>15.17816382725739</v>
+        <v>15.29481611322153</v>
       </c>
       <c r="N4" t="n">
-        <v>339.666550128103</v>
+        <v>348.0045815375139</v>
       </c>
       <c r="O4" t="n">
-        <v>18.43004476739281</v>
+        <v>18.6548809038684</v>
       </c>
       <c r="P4" t="n">
-        <v>299.9668808227376</v>
+        <v>299.350527822816</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15802,28 +15926,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.8144421629843515</v>
+        <v>0.8517177216770172</v>
       </c>
       <c r="J5" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K5" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0794971550731024</v>
+        <v>0.08706842593437081</v>
       </c>
       <c r="M5" t="n">
-        <v>15.40861670972587</v>
+        <v>15.42893746895655</v>
       </c>
       <c r="N5" t="n">
-        <v>421.7923359373697</v>
+        <v>422.3330920867426</v>
       </c>
       <c r="O5" t="n">
-        <v>20.53758349800116</v>
+        <v>20.55074431953117</v>
       </c>
       <c r="P5" t="n">
-        <v>292.7696209885046</v>
+        <v>292.4128012545858</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15874,28 +15998,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.6376454591446027</v>
+        <v>0.6591321881726642</v>
       </c>
       <c r="J6" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K6" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08391256171940475</v>
+        <v>0.09046638666272266</v>
       </c>
       <c r="M6" t="n">
-        <v>12.06373331527847</v>
+        <v>12.04068761666535</v>
       </c>
       <c r="N6" t="n">
-        <v>236.1630482906451</v>
+        <v>235.2085686869391</v>
       </c>
       <c r="O6" t="n">
-        <v>15.36759734931408</v>
+        <v>15.3365109685006</v>
       </c>
       <c r="P6" t="n">
-        <v>290.2561009017969</v>
+        <v>290.0470749117544</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15952,28 +16076,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3339802031372768</v>
+        <v>0.3650555035667415</v>
       </c>
       <c r="J7" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02798691997491065</v>
+        <v>0.03350142562398239</v>
       </c>
       <c r="M7" t="n">
-        <v>11.61537300189828</v>
+        <v>11.63882826003609</v>
       </c>
       <c r="N7" t="n">
-        <v>210.7050082300971</v>
+        <v>211.5547656952155</v>
       </c>
       <c r="O7" t="n">
-        <v>14.51568145937686</v>
+        <v>14.54492233376361</v>
       </c>
       <c r="P7" t="n">
-        <v>285.3663901410246</v>
+        <v>285.06901388067</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16030,28 +16154,28 @@
         <v>0.0682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03123802202839122</v>
+        <v>0.04031151631259915</v>
       </c>
       <c r="J8" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K8" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002749822945270486</v>
+        <v>0.0004673214635674272</v>
       </c>
       <c r="M8" t="n">
-        <v>11.40024095212585</v>
+        <v>11.33486290961898</v>
       </c>
       <c r="N8" t="n">
-        <v>195.8119184773366</v>
+        <v>194.0722110131013</v>
       </c>
       <c r="O8" t="n">
-        <v>13.99328119053343</v>
+        <v>13.93098026030837</v>
       </c>
       <c r="P8" t="n">
-        <v>282.8660353499443</v>
+        <v>282.7801546758429</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16108,28 +16232,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06720842972507785</v>
+        <v>-0.05705686885131458</v>
       </c>
       <c r="J9" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K9" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001643441524428968</v>
+        <v>0.001206637214476225</v>
       </c>
       <c r="M9" t="n">
-        <v>9.888168647526717</v>
+        <v>9.843426837908174</v>
       </c>
       <c r="N9" t="n">
-        <v>149.7224760845261</v>
+        <v>148.659005133393</v>
       </c>
       <c r="O9" t="n">
-        <v>12.23611360214207</v>
+        <v>12.19257992114028</v>
       </c>
       <c r="P9" t="n">
-        <v>273.0089538877033</v>
+        <v>272.9116529242598</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16186,28 +16310,28 @@
         <v>0.0743</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1390161039902422</v>
+        <v>-0.1328871822629096</v>
       </c>
       <c r="J10" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006168283576095446</v>
+        <v>0.005744935932483375</v>
       </c>
       <c r="M10" t="n">
-        <v>10.58701116184662</v>
+        <v>10.51864872654442</v>
       </c>
       <c r="N10" t="n">
-        <v>170.1168156506462</v>
+        <v>168.6619730714434</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04288371682605</v>
+        <v>12.98699245674084</v>
       </c>
       <c r="P10" t="n">
-        <v>267.5091434335271</v>
+        <v>267.45005936309</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16264,28 +16388,28 @@
         <v>0.1277</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2391984322050887</v>
+        <v>-0.2240751399717555</v>
       </c>
       <c r="J11" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K11" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0246722611136807</v>
+        <v>0.02199054258604249</v>
       </c>
       <c r="M11" t="n">
-        <v>8.729291021981677</v>
+        <v>8.731359047966603</v>
       </c>
       <c r="N11" t="n">
-        <v>123.5426740132638</v>
+        <v>123.1302258205498</v>
       </c>
       <c r="O11" t="n">
-        <v>11.11497521424424</v>
+        <v>11.09640598664945</v>
       </c>
       <c r="P11" t="n">
-        <v>269.8030685437494</v>
+        <v>269.6569662050463</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -16342,28 +16466,28 @@
         <v>0.0872</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.338736748513427</v>
+        <v>-0.321516212553527</v>
       </c>
       <c r="J12" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K12" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0503661387140143</v>
+        <v>0.04617173971885091</v>
       </c>
       <c r="M12" t="n">
-        <v>8.164467444565348</v>
+        <v>8.176822507323717</v>
       </c>
       <c r="N12" t="n">
-        <v>115.5098681353606</v>
+        <v>115.2651115914712</v>
       </c>
       <c r="O12" t="n">
-        <v>10.74755172750337</v>
+        <v>10.73615907070453</v>
       </c>
       <c r="P12" t="n">
-        <v>282.5887838681807</v>
+        <v>282.4218766678129</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -16420,28 +16544,28 @@
         <v>0.078</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5391250222550741</v>
+        <v>-0.514673523959796</v>
       </c>
       <c r="J13" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K13" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09336720941237409</v>
+        <v>0.08638757630212679</v>
       </c>
       <c r="M13" t="n">
-        <v>9.48244859540835</v>
+        <v>9.522588499010396</v>
       </c>
       <c r="N13" t="n">
-        <v>151.5369160048728</v>
+        <v>151.9072625830493</v>
       </c>
       <c r="O13" t="n">
-        <v>12.31003314393884</v>
+        <v>12.32506643321038</v>
       </c>
       <c r="P13" t="n">
-        <v>305.3773139603508</v>
+        <v>305.1391470532618</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -16498,28 +16622,28 @@
         <v>0.1146</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6144930620149029</v>
+        <v>-0.5751386575546361</v>
       </c>
       <c r="J14" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K14" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L14" t="n">
-        <v>0.100426291244095</v>
+        <v>0.08879399121952947</v>
       </c>
       <c r="M14" t="n">
-        <v>10.87503996016887</v>
+        <v>10.9790797442194</v>
       </c>
       <c r="N14" t="n">
-        <v>183.6886887755262</v>
+        <v>186.3462803704951</v>
       </c>
       <c r="O14" t="n">
-        <v>13.55318002446386</v>
+        <v>13.6508710480502</v>
       </c>
       <c r="P14" t="n">
-        <v>320.5313849200772</v>
+        <v>320.1558075380952</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -16576,28 +16700,28 @@
         <v>0.0853</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4586839602095643</v>
+        <v>-0.4223569480173846</v>
       </c>
       <c r="J15" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K15" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05197882310953406</v>
+        <v>0.044527176900656</v>
       </c>
       <c r="M15" t="n">
-        <v>11.67854694218142</v>
+        <v>11.76004977948324</v>
       </c>
       <c r="N15" t="n">
-        <v>210.3735284710806</v>
+        <v>212.1061667543612</v>
       </c>
       <c r="O15" t="n">
-        <v>14.50425897697227</v>
+        <v>14.56386510354862</v>
       </c>
       <c r="P15" t="n">
-        <v>326.6485383692705</v>
+        <v>326.3033243340968</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -16635,7 +16759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34043,11 +34167,7 @@
           <t>2025-01-12 22:20:57+00:00</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>-46.62403588103992,169.2690609844914</t>
-        </is>
-      </c>
+      <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr">
         <is>
           <t>-46.624493208142006,169.26845624692837</t>
@@ -34125,11 +34245,7 @@
           <t>2025-01-28 22:20:54+00:00</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>-46.62435248131764,169.2695096828845</t>
-        </is>
-      </c>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
           <t>-46.624674212523956,169.2687127718875</t>
@@ -34274,6 +34390,170 @@
         </is>
       </c>
       <c r="P256" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>-46.62427585615168,169.2694010859874</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>-46.62466364888696,169.2686978007096</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>-46.62506693979856,169.26801648583898</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>-46.62547826734339,169.2673465663525</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>-46.625850416081384,169.26662112771785</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>-46.626239735580825,169.2659200297749</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>-46.62658566109716,169.26515744012633</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>-46.62694267926641,169.2644105775842</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>-46.6273417750052,169.26372335268616</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>-46.62782870604333,169.26316061083222</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>-46.62832986578328,169.26261803838668</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>-46.62894041516318,169.26223049495846</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>-46.62953240785778,169.26181665899838</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>-46.63001943753082,169.26125407629183</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>-46.62432196991839,169.26946644059853</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-46.62475858575729,169.26883234906242</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>-46.6253180594545,169.2683723822553</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>-46.62561488850064,169.26754018954003</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>-46.62592817953502,169.2667313352259</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>-46.62633435311414,169.26605412236168</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-46.6266032984597,169.26518243564843</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>-46.62698649810193,169.26447267682212</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>-46.6273578355782,169.26374611328532</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>-46.62782764105153,169.26315910155756</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>-46.62835431985167,169.26265269397874</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>-46.62892064477428,169.26220247681766</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>-46.629490111534615,169.26175671738355</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>-46.63000115316777,169.2612281640195</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P258"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12714,6 +12714,58 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>318.0733333333333</v>
+      </c>
+      <c r="C259" t="n">
+        <v>326.3033333333333</v>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="n">
+        <v>319.0733333333333</v>
+      </c>
+      <c r="F259" t="n">
+        <v>314.1033333333333</v>
+      </c>
+      <c r="G259" t="n">
+        <v>301.3533333333333</v>
+      </c>
+      <c r="H259" t="n">
+        <v>281.3927272727273</v>
+      </c>
+      <c r="I259" t="n">
+        <v>276.9627272727272</v>
+      </c>
+      <c r="J259" t="n">
+        <v>266.77</v>
+      </c>
+      <c r="K259" t="n">
+        <v>272.0666666666667</v>
+      </c>
+      <c r="L259" t="n">
+        <v>293.8957142857143</v>
+      </c>
+      <c r="M259" t="n">
+        <v>308.17</v>
+      </c>
+      <c r="N259" t="n">
+        <v>317.565</v>
+      </c>
+      <c r="O259" t="n">
+        <v>329.2861538461539</v>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12725,7 +12777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15543,6 +15595,16 @@
       </c>
       <c r="B281" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -15710,28 +15772,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3222133836557628</v>
+        <v>0.3184626319459057</v>
       </c>
       <c r="J2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K2" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009345529912016426</v>
+        <v>0.009312066836189126</v>
       </c>
       <c r="M2" t="n">
-        <v>19.84233473437218</v>
+        <v>19.69398826906495</v>
       </c>
       <c r="N2" t="n">
-        <v>623.9807050897351</v>
+        <v>618.7329483583959</v>
       </c>
       <c r="O2" t="n">
-        <v>24.97960578331322</v>
+        <v>24.87434317441158</v>
       </c>
       <c r="P2" t="n">
-        <v>312.0539513364409</v>
+        <v>312.0879317907307</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15782,28 +15844,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5630679771483551</v>
+        <v>0.5686706122340353</v>
       </c>
       <c r="J3" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K3" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357428871823165</v>
+        <v>0.03468429230439796</v>
       </c>
       <c r="M3" t="n">
-        <v>17.93304279226261</v>
+        <v>17.84089337301899</v>
       </c>
       <c r="N3" t="n">
-        <v>501.4082778466046</v>
+        <v>498.2098928517195</v>
       </c>
       <c r="O3" t="n">
-        <v>22.39214768276157</v>
+        <v>22.320615870798</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5829011511505</v>
+        <v>307.5290100686191</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15857,7 +15919,7 @@
         <v>0.8852626359124629</v>
       </c>
       <c r="J4" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K4" t="n">
         <v>167</v>
@@ -15926,28 +15988,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.8517177216770172</v>
+        <v>0.8563932792139911</v>
       </c>
       <c r="J5" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08706842593437081</v>
+        <v>0.08875252588257421</v>
       </c>
       <c r="M5" t="n">
-        <v>15.42893746895655</v>
+        <v>15.37410517286711</v>
       </c>
       <c r="N5" t="n">
-        <v>422.3330920867426</v>
+        <v>420.3598116468086</v>
       </c>
       <c r="O5" t="n">
-        <v>20.55074431953117</v>
+        <v>20.50267815790924</v>
       </c>
       <c r="P5" t="n">
-        <v>292.4128012545858</v>
+        <v>292.367913043075</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15998,28 +16060,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.6591321881726642</v>
+        <v>0.6664395125411268</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09046638666272266</v>
+        <v>0.09312687207281656</v>
       </c>
       <c r="M6" t="n">
-        <v>12.04068761666535</v>
+        <v>12.01382377165358</v>
       </c>
       <c r="N6" t="n">
-        <v>235.2085686869391</v>
+        <v>234.2704493897088</v>
       </c>
       <c r="O6" t="n">
-        <v>15.3365109685006</v>
+        <v>15.30589590287706</v>
       </c>
       <c r="P6" t="n">
-        <v>290.0470749117544</v>
+        <v>289.9757919316934</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16076,28 +16138,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3650555035667415</v>
+        <v>0.3718342010526922</v>
       </c>
       <c r="J7" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03350142562398239</v>
+        <v>0.03503430324558521</v>
       </c>
       <c r="M7" t="n">
-        <v>11.63882826003609</v>
+        <v>11.61195332078092</v>
       </c>
       <c r="N7" t="n">
-        <v>211.5547656952155</v>
+        <v>210.7396042023218</v>
       </c>
       <c r="O7" t="n">
-        <v>14.54492233376361</v>
+        <v>14.51687308625111</v>
       </c>
       <c r="P7" t="n">
-        <v>285.06901388067</v>
+        <v>285.0039505427836</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16154,28 +16216,28 @@
         <v>0.0682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04031151631259915</v>
+        <v>0.03796959842818968</v>
       </c>
       <c r="J8" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K8" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004673214635674272</v>
+        <v>0.0004189987385534444</v>
       </c>
       <c r="M8" t="n">
-        <v>11.33486290961898</v>
+        <v>11.28942347476255</v>
       </c>
       <c r="N8" t="n">
-        <v>194.0722110131013</v>
+        <v>193.1306036962499</v>
       </c>
       <c r="O8" t="n">
-        <v>13.93098026030837</v>
+        <v>13.89714372438631</v>
       </c>
       <c r="P8" t="n">
-        <v>282.7801546758429</v>
+        <v>282.8023945913605</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16232,28 +16294,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05705686885131458</v>
+        <v>-0.05190752731692503</v>
       </c>
       <c r="J9" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K9" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001206637214476225</v>
+        <v>0.001008111069264572</v>
       </c>
       <c r="M9" t="n">
-        <v>9.843426837908174</v>
+        <v>9.822183208943013</v>
       </c>
       <c r="N9" t="n">
-        <v>148.659005133393</v>
+        <v>148.0879947512524</v>
       </c>
       <c r="O9" t="n">
-        <v>12.19257992114028</v>
+        <v>12.16914108518972</v>
       </c>
       <c r="P9" t="n">
-        <v>272.9116529242598</v>
+        <v>272.8621616148908</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16310,28 +16372,28 @@
         <v>0.0743</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1328871822629096</v>
+        <v>-0.1304814515555211</v>
       </c>
       <c r="J10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K10" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005744935932483375</v>
+        <v>0.005591693221386418</v>
       </c>
       <c r="M10" t="n">
-        <v>10.51864872654442</v>
+        <v>10.4819144182738</v>
       </c>
       <c r="N10" t="n">
-        <v>168.6619730714434</v>
+        <v>167.9181879182116</v>
       </c>
       <c r="O10" t="n">
-        <v>12.98699245674084</v>
+        <v>12.95832504292942</v>
       </c>
       <c r="P10" t="n">
-        <v>267.45005936309</v>
+        <v>267.4267924506637</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16388,28 +16450,28 @@
         <v>0.1277</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2240751399717555</v>
+        <v>-0.217202055368126</v>
       </c>
       <c r="J11" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K11" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02199054258604249</v>
+        <v>0.02082629780503464</v>
       </c>
       <c r="M11" t="n">
-        <v>8.731359047966603</v>
+        <v>8.728694895217043</v>
       </c>
       <c r="N11" t="n">
-        <v>123.1302258205498</v>
+        <v>122.8752408078362</v>
       </c>
       <c r="O11" t="n">
-        <v>11.09640598664945</v>
+        <v>11.08491050066874</v>
       </c>
       <c r="P11" t="n">
-        <v>269.6569662050463</v>
+        <v>269.5903093326701</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -16466,28 +16528,28 @@
         <v>0.0872</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.321516212553527</v>
+        <v>-0.3035770421084683</v>
       </c>
       <c r="J12" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K12" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04617173971885091</v>
+        <v>0.04116322334168254</v>
       </c>
       <c r="M12" t="n">
-        <v>8.176822507323717</v>
+        <v>8.231236605253377</v>
       </c>
       <c r="N12" t="n">
-        <v>115.2651115914712</v>
+        <v>116.4882636475063</v>
       </c>
       <c r="O12" t="n">
-        <v>10.73615907070453</v>
+        <v>10.79297288273747</v>
       </c>
       <c r="P12" t="n">
-        <v>282.4218766678129</v>
+        <v>282.2474229327049</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -16544,28 +16606,28 @@
         <v>0.078</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.514673523959796</v>
+        <v>-0.5006394645629817</v>
       </c>
       <c r="J13" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K13" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08638757630212679</v>
+        <v>0.08225489677025499</v>
       </c>
       <c r="M13" t="n">
-        <v>9.522588499010396</v>
+        <v>9.552056911741319</v>
       </c>
       <c r="N13" t="n">
-        <v>151.9072625830493</v>
+        <v>152.3790121150431</v>
       </c>
       <c r="O13" t="n">
-        <v>12.32506643321038</v>
+        <v>12.34418940696566</v>
       </c>
       <c r="P13" t="n">
-        <v>305.1391470532618</v>
+        <v>305.0019111817334</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -16622,28 +16684,28 @@
         <v>0.1146</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5751386575546361</v>
+        <v>-0.5643371893951227</v>
       </c>
       <c r="J14" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K14" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08879399121952947</v>
+        <v>0.08626899531214227</v>
       </c>
       <c r="M14" t="n">
-        <v>10.9790797442194</v>
+        <v>10.98548671289426</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3462803704951</v>
+        <v>186.1558610362759</v>
       </c>
       <c r="O14" t="n">
-        <v>13.6508710480502</v>
+        <v>13.64389464325622</v>
       </c>
       <c r="P14" t="n">
-        <v>320.1558075380952</v>
+        <v>320.0523169083306</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -16700,28 +16762,28 @@
         <v>0.0853</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4223569480173846</v>
+        <v>-0.4100777803880075</v>
       </c>
       <c r="J15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K15" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L15" t="n">
-        <v>0.044527176900656</v>
+        <v>0.04231591940559321</v>
       </c>
       <c r="M15" t="n">
-        <v>11.76004977948324</v>
+        <v>11.7698782943866</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1061667543612</v>
+        <v>211.9910137547388</v>
       </c>
       <c r="O15" t="n">
-        <v>14.56386510354862</v>
+        <v>14.55991118636164</v>
       </c>
       <c r="P15" t="n">
-        <v>326.3033243340968</v>
+        <v>326.1861829036191</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -16759,7 +16821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P258"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34559,6 +34621,84 @@
         </is>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>-46.624116587570164,169.2691753642513</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>-46.624614440039885,169.26862806021813</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>-46.625457747341194,169.26731748497343</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>-46.6258706789025,169.2666498444416</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-46.626233560205726,169.26591127801632</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>-46.62655005302457,169.26510697673618</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>-46.626966445418354,169.26444425851435</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>-46.62734576334549,169.2637290048497</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>-46.62782471768467,169.26315495864955</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>-46.62841001921744,169.26273162966223</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>-46.628946719385645,169.2622394291638</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>-46.62945202873673,169.26170274721872</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>-46.62997229899681,169.2611872724557</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:P262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12726,7 +12726,9 @@
       <c r="C259" t="n">
         <v>326.3033333333333</v>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="n">
+        <v>323.8733333333333</v>
+      </c>
       <c r="E259" t="n">
         <v>319.0733333333333</v>
       </c>
@@ -12761,6 +12763,138 @@
         <v>329.2861538461539</v>
       </c>
       <c r="P259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="n">
+        <v>300.2588888888889</v>
+      </c>
+      <c r="D260" t="n">
+        <v>301.6988888888889</v>
+      </c>
+      <c r="E260" t="n">
+        <v>298.0988888888889</v>
+      </c>
+      <c r="F260" t="n">
+        <v>279.8688888888889</v>
+      </c>
+      <c r="G260" t="n">
+        <v>268.2888888888889</v>
+      </c>
+      <c r="H260" t="n">
+        <v>259.379090909091</v>
+      </c>
+      <c r="I260" t="n">
+        <v>245.0590909090909</v>
+      </c>
+      <c r="J260" t="n">
+        <v>228.6666666666666</v>
+      </c>
+      <c r="K260" t="n">
+        <v>239.6944444444445</v>
+      </c>
+      <c r="L260" t="n">
+        <v>248.1171428571429</v>
+      </c>
+      <c r="M260" t="n">
+        <v>272.8766666666667</v>
+      </c>
+      <c r="N260" t="n">
+        <v>285.32</v>
+      </c>
+      <c r="O260" t="n">
+        <v>294.6376923076923</v>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="n">
+        <v>310.2444444444445</v>
+      </c>
+      <c r="F261" t="n">
+        <v>302.9944444444445</v>
+      </c>
+      <c r="G261" t="n">
+        <v>289.1644444444445</v>
+      </c>
+      <c r="H261" t="n">
+        <v>288.4027272727272</v>
+      </c>
+      <c r="I261" t="n">
+        <v>277.3627272727272</v>
+      </c>
+      <c r="J261" t="n">
+        <v>259.8933333333333</v>
+      </c>
+      <c r="K261" t="n">
+        <v>265.2122222222222</v>
+      </c>
+      <c r="L261" t="n">
+        <v>275.3928571428572</v>
+      </c>
+      <c r="M261" t="n">
+        <v>298.1233333333333</v>
+      </c>
+      <c r="N261" t="n">
+        <v>317.775</v>
+      </c>
+      <c r="O261" t="n">
+        <v>321.1415384615385</v>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>286.7366666666667</v>
+      </c>
+      <c r="N262" t="n">
+        <v>300.84</v>
+      </c>
+      <c r="O262" t="n">
+        <v>318.3030769230769</v>
+      </c>
+      <c r="P262" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12777,7 +12911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15605,6 +15739,36 @@
       </c>
       <c r="B282" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -15775,7 +15939,7 @@
         <v>0.3184626319459057</v>
       </c>
       <c r="J2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K2" t="n">
         <v>118</v>
@@ -15844,28 +16008,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5686706122340353</v>
+        <v>0.5407546976700571</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K3" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03468429230439796</v>
+        <v>0.03170626045355374</v>
       </c>
       <c r="M3" t="n">
-        <v>17.84089337301899</v>
+        <v>17.87493370478841</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2098928517195</v>
+        <v>498.0105790890009</v>
       </c>
       <c r="O3" t="n">
-        <v>22.320615870798</v>
+        <v>22.31615063331938</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5290100686191</v>
+        <v>307.7989690939371</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15916,28 +16080,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.8852626359124629</v>
+        <v>0.8632129516769763</v>
       </c>
       <c r="J4" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K4" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L4" t="n">
-        <v>0.107678737138361</v>
+        <v>0.1047471935784435</v>
       </c>
       <c r="M4" t="n">
-        <v>15.29481611322153</v>
+        <v>15.25050713872925</v>
       </c>
       <c r="N4" t="n">
-        <v>348.0045815375139</v>
+        <v>346.3216413900558</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6548809038684</v>
+        <v>18.60971900352221</v>
       </c>
       <c r="P4" t="n">
-        <v>299.350527822816</v>
+        <v>299.5649097704597</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15988,28 +16152,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.8563932792139911</v>
+        <v>0.8373987049141159</v>
       </c>
       <c r="J5" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K5" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08875252588257421</v>
+        <v>0.08654730686316736</v>
       </c>
       <c r="M5" t="n">
-        <v>15.37410517286711</v>
+        <v>15.33112082153887</v>
       </c>
       <c r="N5" t="n">
-        <v>420.3598116468086</v>
+        <v>417.5828977528441</v>
       </c>
       <c r="O5" t="n">
-        <v>20.50267815790924</v>
+        <v>20.43484518543863</v>
       </c>
       <c r="P5" t="n">
-        <v>292.367913043075</v>
+        <v>292.5513070234849</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16060,28 +16224,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.6664395125411268</v>
+        <v>0.635458660056137</v>
       </c>
       <c r="J6" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K6" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09312687207281656</v>
+        <v>0.08584176304946711</v>
       </c>
       <c r="M6" t="n">
-        <v>12.01382377165358</v>
+        <v>12.05781572055934</v>
       </c>
       <c r="N6" t="n">
-        <v>234.2704493897088</v>
+        <v>235.6474832617622</v>
       </c>
       <c r="O6" t="n">
-        <v>15.30589590287706</v>
+        <v>15.35081376545759</v>
       </c>
       <c r="P6" t="n">
-        <v>289.9757919316934</v>
+        <v>290.2796243123959</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16138,28 +16302,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3718342010526922</v>
+        <v>0.3416567529107465</v>
       </c>
       <c r="J7" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K7" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03503430324558521</v>
+        <v>0.02987577543571307</v>
       </c>
       <c r="M7" t="n">
-        <v>11.61195332078092</v>
+        <v>11.66749137793396</v>
       </c>
       <c r="N7" t="n">
-        <v>210.7396042023218</v>
+        <v>212.1258195564521</v>
       </c>
       <c r="O7" t="n">
-        <v>14.51687308625111</v>
+        <v>14.56453979899304</v>
       </c>
       <c r="P7" t="n">
-        <v>285.0039505427836</v>
+        <v>285.295192027846</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16216,28 +16380,28 @@
         <v>0.0682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03796959842818968</v>
+        <v>0.01921993388380695</v>
       </c>
       <c r="J8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K8" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004189987385534444</v>
+        <v>0.0001079791192573065</v>
       </c>
       <c r="M8" t="n">
-        <v>11.28942347476255</v>
+        <v>11.31462652237673</v>
       </c>
       <c r="N8" t="n">
-        <v>193.1306036962499</v>
+        <v>194.2414403033384</v>
       </c>
       <c r="O8" t="n">
-        <v>13.89714372438631</v>
+        <v>13.93705278397619</v>
       </c>
       <c r="P8" t="n">
-        <v>282.8023945913605</v>
+        <v>282.9813647933869</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16294,28 +16458,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05190752731692503</v>
+        <v>-0.0708144601856672</v>
       </c>
       <c r="J9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K9" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001008111069264572</v>
+        <v>0.001868719706178079</v>
       </c>
       <c r="M9" t="n">
-        <v>9.822183208943013</v>
+        <v>9.885414942395354</v>
       </c>
       <c r="N9" t="n">
-        <v>148.0879947512524</v>
+        <v>150.1468741331305</v>
       </c>
       <c r="O9" t="n">
-        <v>12.16914108518972</v>
+        <v>12.25344335822101</v>
       </c>
       <c r="P9" t="n">
-        <v>272.8621616148908</v>
+        <v>273.044797910218</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16372,28 +16536,28 @@
         <v>0.0743</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1304814515555211</v>
+        <v>-0.1649677840037419</v>
       </c>
       <c r="J10" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K10" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005591693221386418</v>
+        <v>0.008779081534056821</v>
       </c>
       <c r="M10" t="n">
-        <v>10.4819144182738</v>
+        <v>10.57654468313621</v>
       </c>
       <c r="N10" t="n">
-        <v>167.9181879182116</v>
+        <v>172.0918830171544</v>
       </c>
       <c r="O10" t="n">
-        <v>12.95832504292942</v>
+        <v>13.11837958808764</v>
       </c>
       <c r="P10" t="n">
-        <v>267.4267924506637</v>
+        <v>267.7621808751598</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16450,28 +16614,28 @@
         <v>0.1277</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.217202055368126</v>
+        <v>-0.2364250747399038</v>
       </c>
       <c r="J11" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K11" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02082629780503464</v>
+        <v>0.02451547035488411</v>
       </c>
       <c r="M11" t="n">
-        <v>8.728694895217043</v>
+        <v>8.764029927971368</v>
       </c>
       <c r="N11" t="n">
-        <v>122.8752408078362</v>
+        <v>124.3613684658972</v>
       </c>
       <c r="O11" t="n">
-        <v>11.08491050066874</v>
+        <v>11.15174284432246</v>
       </c>
       <c r="P11" t="n">
-        <v>269.5903093326701</v>
+        <v>269.7777473401013</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -16528,28 +16692,28 @@
         <v>0.0872</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3035770421084683</v>
+        <v>-0.3262980288055785</v>
       </c>
       <c r="J12" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K12" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04116322334168254</v>
+        <v>0.04694226330307094</v>
       </c>
       <c r="M12" t="n">
-        <v>8.231236605253377</v>
+        <v>8.278832250293503</v>
       </c>
       <c r="N12" t="n">
-        <v>116.4882636475063</v>
+        <v>118.546227438819</v>
       </c>
       <c r="O12" t="n">
-        <v>10.79297288273747</v>
+        <v>10.88789361808881</v>
       </c>
       <c r="P12" t="n">
-        <v>282.2474229327049</v>
+        <v>282.4695167243677</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -16606,28 +16770,28 @@
         <v>0.078</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5006394645629817</v>
+        <v>-0.5163947901080307</v>
       </c>
       <c r="J13" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K13" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08225489677025499</v>
+        <v>0.08826615663320991</v>
       </c>
       <c r="M13" t="n">
-        <v>9.552056911741319</v>
+        <v>9.559847689216216</v>
       </c>
       <c r="N13" t="n">
-        <v>152.3790121150431</v>
+        <v>152.2687004298498</v>
       </c>
       <c r="O13" t="n">
-        <v>12.34418940696566</v>
+        <v>12.33972043564399</v>
       </c>
       <c r="P13" t="n">
-        <v>305.0019111817334</v>
+        <v>305.1568846894193</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -16684,28 +16848,28 @@
         <v>0.1146</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5643371893951227</v>
+        <v>-0.5753592768207002</v>
       </c>
       <c r="J14" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K14" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08626899531214227</v>
+        <v>0.09060468574785663</v>
       </c>
       <c r="M14" t="n">
-        <v>10.98548671289426</v>
+        <v>11.00213153824565</v>
       </c>
       <c r="N14" t="n">
-        <v>186.1558610362759</v>
+        <v>186.2488847414429</v>
       </c>
       <c r="O14" t="n">
-        <v>13.64389464325622</v>
+        <v>13.64730320398294</v>
       </c>
       <c r="P14" t="n">
-        <v>320.0523169083306</v>
+        <v>320.158488155816</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -16762,28 +16926,28 @@
         <v>0.0853</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4100777803880075</v>
+        <v>-0.4211775842243441</v>
       </c>
       <c r="J15" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K15" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04231591940559321</v>
+        <v>0.04534103054018079</v>
       </c>
       <c r="M15" t="n">
-        <v>11.7698782943866</v>
+        <v>11.74246481806937</v>
       </c>
       <c r="N15" t="n">
-        <v>211.9910137547388</v>
+        <v>211.2755228994427</v>
       </c>
       <c r="O15" t="n">
-        <v>14.55991118636164</v>
+        <v>14.53531984166302</v>
       </c>
       <c r="P15" t="n">
-        <v>326.1861829036191</v>
+        <v>326.2925107408236</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -16821,7 +16985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:P262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34637,7 +34801,11 @@
           <t>-46.624614440039885,169.26862806021813</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>-46.62504371823671,169.26798357558968</t>
+        </is>
+      </c>
       <c r="E259" t="inlineStr">
         <is>
           <t>-46.625457747341194,169.26731748497343</t>
@@ -34694,6 +34862,192 @@
         </is>
       </c>
       <c r="P259" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>-46.6244469081007,169.26839062948622</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>-46.62490107947621,169.26778142482408</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-46.62532282690606,169.26712627368119</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-46.62565046063339,169.26633775001</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>-46.62602086675892,169.26560985002982</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-46.626408445089744,169.26490629238722</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-46.62676121644139,169.26415341338424</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>-46.62710065148089,169.26338164143903</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>-46.62761647211276,169.26285984091146</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>-46.62811553157042,169.26231429212004</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>-46.628719681199286,169.26191767752627</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>-46.62924459930083,169.26140878436584</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>-46.62974940737054,169.26087139693482</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>-46.625400954572264,169.26723699723087</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>-46.62579921937179,169.26654857123773</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-46.62615515290104,169.26580015921812</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>-46.626595146443286,169.26517088267633</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>-46.626969018524804,169.2644479050735</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>-46.62730152706224,169.26366631450153</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>-46.627780624146844,169.2630924706854</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>-46.62829099289249,169.2625629489529</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>-46.6288820903534,169.2621478384631</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>-46.62945337964719,169.2617046616996</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>-46.62991990521134,169.26111302117295</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>-46.628808841175996,169.26204403188103</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>-46.62934443827279,169.2615502727959</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>-46.629901645560864,169.2610871440596</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12612,9 +12612,7 @@
           <t>2025-04-10 22:20:22+00:00</t>
         </is>
       </c>
-      <c r="B257" t="n">
-        <v>342.8333333333333</v>
-      </c>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
         <v>333.9533333333333</v>
       </c>
@@ -12666,9 +12664,7 @@
           <t>2025-05-04 22:20:29+00:00</t>
         </is>
       </c>
-      <c r="B258" t="n">
-        <v>350.0022222222222</v>
-      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
         <v>348.7122222222222</v>
       </c>
@@ -12720,9 +12716,7 @@
           <t>2025-05-20 22:20:18+00:00</t>
         </is>
       </c>
-      <c r="B259" t="n">
-        <v>318.0733333333333</v>
-      </c>
+      <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
         <v>326.3033333333333</v>
       </c>
@@ -12900,6 +12894,60 @@
         </is>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>160.16</v>
+      </c>
+      <c r="C263" t="n">
+        <v>291.36</v>
+      </c>
+      <c r="D263" t="n">
+        <v>298.94</v>
+      </c>
+      <c r="E263" t="n">
+        <v>295.95</v>
+      </c>
+      <c r="F263" t="n">
+        <v>285.77</v>
+      </c>
+      <c r="G263" t="n">
+        <v>274.2</v>
+      </c>
+      <c r="H263" t="n">
+        <v>266.2345454545454</v>
+      </c>
+      <c r="I263" t="n">
+        <v>255.0945454545455</v>
+      </c>
+      <c r="J263" t="n">
+        <v>245.56</v>
+      </c>
+      <c r="K263" t="n">
+        <v>255.02</v>
+      </c>
+      <c r="L263" t="n">
+        <v>261.6271428571428</v>
+      </c>
+      <c r="M263" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="N263" t="n">
+        <v>310.98</v>
+      </c>
+      <c r="O263" t="n">
+        <v>303.0215384615385</v>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12911,7 +12959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15769,6 +15817,16 @@
       </c>
       <c r="B285" t="n">
         <v>-0.2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -15936,28 +15994,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3184626319459057</v>
+        <v>-0.06410899265028563</v>
       </c>
       <c r="J2" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K2" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009312066836189126</v>
+        <v>0.000278753422323974</v>
       </c>
       <c r="M2" t="n">
-        <v>19.69398826906495</v>
+        <v>21.0303826309911</v>
       </c>
       <c r="N2" t="n">
-        <v>618.7329483583959</v>
+        <v>826.8363605471105</v>
       </c>
       <c r="O2" t="n">
-        <v>24.87434317441158</v>
+        <v>28.75476239768137</v>
       </c>
       <c r="P2" t="n">
-        <v>312.0879317907307</v>
+        <v>315.5752398925687</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16008,28 +16066,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.5407546976700571</v>
+        <v>0.5023682082222409</v>
       </c>
       <c r="J3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K3" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03170626045355374</v>
+        <v>0.02753891018725318</v>
       </c>
       <c r="M3" t="n">
-        <v>17.87493370478841</v>
+        <v>17.96373525556911</v>
       </c>
       <c r="N3" t="n">
-        <v>498.0105790890009</v>
+        <v>500.660812055072</v>
       </c>
       <c r="O3" t="n">
-        <v>22.31615063331938</v>
+        <v>22.37545110282856</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7989690939371</v>
+        <v>308.1721629762943</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16080,28 +16138,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.8632129516769763</v>
+        <v>0.8361605168622226</v>
       </c>
       <c r="J4" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K4" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1047471935784435</v>
+        <v>0.09932449214172301</v>
       </c>
       <c r="M4" t="n">
-        <v>15.25050713872925</v>
+        <v>15.29871719559671</v>
       </c>
       <c r="N4" t="n">
-        <v>346.3216413900558</v>
+        <v>347.300091702032</v>
       </c>
       <c r="O4" t="n">
-        <v>18.60971900352221</v>
+        <v>18.63598915276653</v>
       </c>
       <c r="P4" t="n">
-        <v>299.5649097704597</v>
+        <v>299.8291171926672</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16152,28 +16210,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.8373987049141159</v>
+        <v>0.8205203637960177</v>
       </c>
       <c r="J5" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K5" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08654730686316736</v>
+        <v>0.08386602265643806</v>
       </c>
       <c r="M5" t="n">
-        <v>15.33112082153887</v>
+        <v>15.35071059004072</v>
       </c>
       <c r="N5" t="n">
-        <v>417.5828977528441</v>
+        <v>417.1325128015712</v>
       </c>
       <c r="O5" t="n">
-        <v>20.43484518543863</v>
+        <v>20.42382218884534</v>
       </c>
       <c r="P5" t="n">
-        <v>292.5513070234849</v>
+        <v>292.7151265592184</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16224,28 +16282,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.635458660056137</v>
+        <v>0.6149080868389932</v>
       </c>
       <c r="J6" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K6" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08584176304946711</v>
+        <v>0.08093855320425014</v>
       </c>
       <c r="M6" t="n">
-        <v>12.05781572055934</v>
+        <v>12.1117326592012</v>
       </c>
       <c r="N6" t="n">
-        <v>235.6474832617622</v>
+        <v>236.6193613873695</v>
       </c>
       <c r="O6" t="n">
-        <v>15.35081376545759</v>
+        <v>15.38243678314231</v>
       </c>
       <c r="P6" t="n">
-        <v>290.2796243123959</v>
+        <v>290.4821962575239</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16302,28 +16360,28 @@
         <v>0.0602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3416567529107465</v>
+        <v>0.3227854087836157</v>
       </c>
       <c r="J7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02987577543571307</v>
+        <v>0.02678945989408277</v>
       </c>
       <c r="M7" t="n">
-        <v>11.66749137793396</v>
+        <v>11.71727893274755</v>
       </c>
       <c r="N7" t="n">
-        <v>212.1258195564521</v>
+        <v>212.9967797115898</v>
       </c>
       <c r="O7" t="n">
-        <v>14.56453979899304</v>
+        <v>14.59440919364637</v>
       </c>
       <c r="P7" t="n">
-        <v>285.295192027846</v>
+        <v>285.4782608657649</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16380,28 +16438,28 @@
         <v>0.0682</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01921993388380695</v>
+        <v>0.00294878483275842</v>
       </c>
       <c r="J8" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K8" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001079791192573065</v>
+        <v>2.549577790222912e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>11.31462652237673</v>
+        <v>11.33678088005431</v>
       </c>
       <c r="N8" t="n">
-        <v>194.2414403033384</v>
+        <v>194.7267011676294</v>
       </c>
       <c r="O8" t="n">
-        <v>13.93705278397619</v>
+        <v>13.95445094468533</v>
       </c>
       <c r="P8" t="n">
-        <v>282.9813647933869</v>
+        <v>283.1375627991437</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16458,28 +16516,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0708144601856672</v>
+        <v>-0.08552751237259591</v>
       </c>
       <c r="J9" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K9" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001868719706178079</v>
+        <v>0.002728744739406541</v>
       </c>
       <c r="M9" t="n">
-        <v>9.885414942395354</v>
+        <v>9.916686059377659</v>
       </c>
       <c r="N9" t="n">
-        <v>150.1468741331305</v>
+        <v>150.6497280172204</v>
       </c>
       <c r="O9" t="n">
-        <v>12.25344335822101</v>
+        <v>12.27394508775481</v>
       </c>
       <c r="P9" t="n">
-        <v>273.044797910218</v>
+        <v>273.1877341996109</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16536,28 +16594,28 @@
         <v>0.0743</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1649677840037419</v>
+        <v>-0.1805414214864915</v>
       </c>
       <c r="J10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K10" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008779081534056821</v>
+        <v>0.01050711323811149</v>
       </c>
       <c r="M10" t="n">
-        <v>10.57654468313621</v>
+        <v>10.61577397117136</v>
       </c>
       <c r="N10" t="n">
-        <v>172.0918830171544</v>
+        <v>172.754382890068</v>
       </c>
       <c r="O10" t="n">
-        <v>13.11837958808764</v>
+        <v>13.1436061600334</v>
       </c>
       <c r="P10" t="n">
-        <v>267.7621808751598</v>
+        <v>267.9144497517865</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16614,28 +16672,28 @@
         <v>0.1277</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2364250747399038</v>
+        <v>-0.2436083522585504</v>
       </c>
       <c r="J11" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K11" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02451547035488411</v>
+        <v>0.02614975561970589</v>
       </c>
       <c r="M11" t="n">
-        <v>8.764029927971368</v>
+        <v>8.763868525501428</v>
       </c>
       <c r="N11" t="n">
-        <v>124.3613684658972</v>
+        <v>124.1430172787347</v>
       </c>
       <c r="O11" t="n">
-        <v>11.15174284432246</v>
+        <v>11.14194854048136</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7777473401013</v>
+        <v>269.8481776956942</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -16692,28 +16750,28 @@
         <v>0.0872</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3262980288055785</v>
+        <v>-0.3373756235433876</v>
       </c>
       <c r="J12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04694226330307094</v>
+        <v>0.05020840385319514</v>
       </c>
       <c r="M12" t="n">
-        <v>8.278832250293503</v>
+        <v>8.296889926408982</v>
       </c>
       <c r="N12" t="n">
-        <v>118.546227438819</v>
+        <v>118.6998690916469</v>
       </c>
       <c r="O12" t="n">
-        <v>10.88789361808881</v>
+        <v>10.89494695221812</v>
       </c>
       <c r="P12" t="n">
-        <v>282.4695167243677</v>
+        <v>282.5783681777583</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -16770,28 +16828,28 @@
         <v>0.078</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5163947901080307</v>
+        <v>-0.5133715931667668</v>
       </c>
       <c r="J13" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K13" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08826615663320991</v>
+        <v>0.08801825026072674</v>
       </c>
       <c r="M13" t="n">
-        <v>9.559847689216216</v>
+        <v>9.533806765624071</v>
       </c>
       <c r="N13" t="n">
-        <v>152.2687004298498</v>
+        <v>151.6597441079236</v>
       </c>
       <c r="O13" t="n">
-        <v>12.33972043564399</v>
+        <v>12.31502107622734</v>
       </c>
       <c r="P13" t="n">
-        <v>305.1568846894193</v>
+        <v>305.1270043977281</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -16848,28 +16906,28 @@
         <v>0.1146</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5753592768207002</v>
+        <v>-0.570502720668689</v>
       </c>
       <c r="J14" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K14" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09060468574785663</v>
+        <v>0.0899292903025779</v>
       </c>
       <c r="M14" t="n">
-        <v>11.00213153824565</v>
+        <v>10.97891039030058</v>
       </c>
       <c r="N14" t="n">
-        <v>186.2488847414429</v>
+        <v>185.560602862644</v>
       </c>
       <c r="O14" t="n">
-        <v>13.64730320398294</v>
+        <v>13.6220630912738</v>
       </c>
       <c r="P14" t="n">
-        <v>320.158488155816</v>
+        <v>320.1114638101569</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -16926,28 +16984,28 @@
         <v>0.0853</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4211775842243441</v>
+        <v>-0.4318580871818224</v>
       </c>
       <c r="J15" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K15" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04534103054018079</v>
+        <v>0.04784149572284413</v>
       </c>
       <c r="M15" t="n">
-        <v>11.74246481806937</v>
+        <v>11.74494925463034</v>
       </c>
       <c r="N15" t="n">
-        <v>211.2755228994427</v>
+        <v>211.0105118261361</v>
       </c>
       <c r="O15" t="n">
-        <v>14.53531984166302</v>
+        <v>14.5262008738051</v>
       </c>
       <c r="P15" t="n">
-        <v>326.2925107408236</v>
+        <v>326.3954974685153</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -16985,7 +17043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P262"/>
+  <dimension ref="A1:P263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34627,11 +34685,7 @@
           <t>2025-04-10 22:20:22+00:00</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>-46.62427585615168,169.2694010859874</t>
-        </is>
-      </c>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="inlineStr">
         <is>
           <t>-46.62466364888696,169.2686978007096</t>
@@ -34709,11 +34763,7 @@
           <t>2025-05-04 22:20:29+00:00</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>-46.62432196991839,169.26946644059853</t>
-        </is>
-      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
           <t>-46.62475858575729,169.26883234906242</t>
@@ -34791,11 +34841,7 @@
           <t>2025-05-20 22:20:18+00:00</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>-46.624116587570164,169.2691753642513</t>
-        </is>
-      </c>
+      <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr">
         <is>
           <t>-46.624614440039885,169.26862806021813</t>
@@ -35053,6 +35099,88 @@
         </is>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>-46.62310080113768,169.2677357964095</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>-46.6243896655348,169.26830950427916</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>-46.62488333269551,169.26775627380604</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>-46.62530900392381,169.26710668361787</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>-46.625688420483925,169.26639154663968</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>-46.626058891180534,169.26566373778186</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>-46.626452544461216,169.26496878910228</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>-46.626825772355744,169.2642448999935</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>-46.62720932336461,169.26353564662995</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>-46.627715059163556,169.26299955433976</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>-46.62820243980449,169.26243745473616</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>-46.62886495743005,169.26212355815136</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>-46.629409668029375,169.2616427146159</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>-46.62980334026044,169.26094782871286</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0556/nzd0556.xlsx
+++ b/data/nzd0556/nzd0556.xlsx
@@ -15990,9 +15990,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0247</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.06417477182340395</v>
       </c>
@@ -16062,9 +16068,15 @@
       <c r="E3" t="n">
         <v>0.0769230769237735</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0356</v>
+      </c>
       <c r="I3" t="n">
         <v>0.5023110257099765</v>
       </c>
@@ -16134,9 +16146,15 @@
       <c r="E4" t="n">
         <v>0.1538461538455617</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0432</v>
+      </c>
       <c r="I4" t="n">
         <v>0.8361244179831699</v>
       </c>
@@ -16206,9 +16224,15 @@
       <c r="E5" t="n">
         <v>0.2307692307693353</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0479</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I5" t="n">
         <v>0.8204967865190099</v>
       </c>
@@ -16278,9 +16302,15 @@
       <c r="E6" t="n">
         <v>0.3076923076900903</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0467</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0617</v>
+      </c>
       <c r="I6" t="n">
         <v>0.6148739127540802</v>
       </c>
@@ -16351,13 +16381,13 @@
         <v>0.3846153846133471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0353</v>
+        <v>0.0469</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0602</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>0.3227571672069364</v>
@@ -16429,13 +16459,13 @@
         <v>0.4615384615371206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0434</v>
+        <v>0.0389</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0682</v>
+        <v>0.0479</v>
       </c>
       <c r="I8" t="n">
         <v>0.002919223652653906</v>
@@ -16510,10 +16540,10 @@
         <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0444</v>
+        <v>0.0494</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="I9" t="n">
         <v>-0.08555114315602808</v>
@@ -16588,10 +16618,10 @@
         <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0476</v>
+        <v>0.051</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0743</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.180539620309779</v>
@@ -16663,13 +16693,13 @@
         <v>0.6923076923059392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0673</v>
+        <v>0.0289</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1277</v>
+        <v>0.0497</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2436257187245418</v>
@@ -16741,13 +16771,13 @@
         <v>0.7692307692291961</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0568</v>
+        <v>0.0619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0872</v>
+        <v>0.1044</v>
       </c>
       <c r="I12" t="n">
         <v>-0.3373979847081636</v>
@@ -16819,13 +16849,13 @@
         <v>0.8461538461519363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0479</v>
+        <v>0.0411</v>
       </c>
       <c r="H13" t="n">
-        <v>0.078</v>
+        <v>0.056</v>
       </c>
       <c r="I13" t="n">
         <v>-0.513377754685798</v>
@@ -16897,13 +16927,13 @@
         <v>0.9230769230757099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0638</v>
+        <v>0.0461</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1146</v>
+        <v>0.0689</v>
       </c>
       <c r="I14" t="n">
         <v>-0.5704643823553891</v>
@@ -16978,10 +17008,10 @@
         <v>0.065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0524</v>
+        <v>0.0522</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0853</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I15" t="n">
         <v>-0.4318643760759012</v>
